--- a/FBAutomation/Data/EUP_Data.xlsx
+++ b/FBAutomation/Data/EUP_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -60,9 +60,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>sid128@gmail.com</t>
-  </si>
-  <si>
     <t>password123</t>
   </si>
   <si>
@@ -72,13 +69,13 @@
     <t>Wp-469/2 2nd floor</t>
   </si>
   <si>
-    <t>https://stg-hbh.fishbowlcloud.com/enduserportal/#/OAuthsignin</t>
-  </si>
-  <si>
-    <t>sid1867219@gmail.com</t>
-  </si>
-  <si>
-    <t>sid3261257@gmail.com</t>
+    <t>sid7293911@gmail.com</t>
+  </si>
+  <si>
+    <t>https://stg-seaisland.fishbowlcloud.com/enduserportal/#/OAuthsignin</t>
+  </si>
+  <si>
+    <t>sid3716900@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -531,16 +528,16 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
